--- a/public/assets/data/product_stock_update.xlsx
+++ b/public/assets/data/product_stock_update.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Sku</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>D560885WIN9S</t>
+  </si>
+  <si>
+    <t>Stock Status</t>
+  </si>
+  <si>
+    <t>in_stock</t>
+  </si>
+  <si>
+    <t>out_of_stock</t>
   </si>
 </sst>
 </file>
@@ -363,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -374,9 +383,10 @@
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,8 +396,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -397,8 +410,11 @@
       <c r="C2">
         <v>10</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -408,8 +424,11 @@
       <c r="C3">
         <v>10</v>
       </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -418,6 +437,9 @@
       </c>
       <c r="C4">
         <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
